--- a/data/576/MAS/OFRV/Interest Rates of Banks and Finance Companies.xlsx
+++ b/data/576/MAS/OFRV/Interest Rates of Banks and Finance Companies.xlsx
@@ -496,7 +496,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -898,7 +898,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -3243,7 +3243,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -3980,7 +3980,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -4114,7 +4114,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -4248,7 +4248,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -4382,7 +4382,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -4650,7 +4650,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -4918,7 +4918,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -5052,7 +5052,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -5119,7 +5119,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -5186,7 +5186,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -5588,7 +5588,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -5655,7 +5655,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5856,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -5923,7 +5923,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -5990,7 +5990,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -6124,7 +6124,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -6258,7 +6258,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -6325,7 +6325,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -6392,7 +6392,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -6526,7 +6526,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -6593,7 +6593,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -6727,7 +6727,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -6794,7 +6794,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -6861,7 +6861,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -6928,7 +6928,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -7062,7 +7062,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -7196,7 +7196,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -7263,7 +7263,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -7330,7 +7330,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -7397,7 +7397,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -7464,7 +7464,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -7531,7 +7531,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -7598,7 +7598,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -7665,7 +7665,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -7732,7 +7732,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -7799,7 +7799,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -7866,7 +7866,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -8000,7 +8000,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -8067,7 +8067,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -8134,7 +8134,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -8201,7 +8201,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -8335,7 +8335,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -8402,7 +8402,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -8469,7 +8469,7 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -8536,7 +8536,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -8603,7 +8603,7 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -8670,7 +8670,7 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -8737,7 +8737,7 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -8804,7 +8804,7 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -8871,7 +8871,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -8938,7 +8938,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -9005,7 +9005,7 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -9072,7 +9072,7 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -9139,7 +9139,7 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -9206,7 +9206,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -9273,7 +9273,7 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -9340,7 +9340,7 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -9407,7 +9407,7 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -9474,7 +9474,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -9541,7 +9541,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -9608,7 +9608,7 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -9675,7 +9675,7 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -9742,7 +9742,7 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -9809,7 +9809,7 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -9876,7 +9876,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -9943,7 +9943,7 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -10010,7 +10010,7 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -10077,7 +10077,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -10144,7 +10144,7 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -10211,7 +10211,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -10278,7 +10278,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -10412,7 +10412,7 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -10479,7 +10479,7 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -10546,7 +10546,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -10613,7 +10613,7 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -10680,7 +10680,7 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -10747,7 +10747,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -10814,7 +10814,7 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -10881,7 +10881,7 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -10948,7 +10948,7 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -11015,7 +11015,7 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -11082,7 +11082,7 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -11149,7 +11149,7 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -11216,7 +11216,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -11283,7 +11283,7 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -11350,7 +11350,7 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -11417,7 +11417,7 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -11484,7 +11484,7 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -11551,7 +11551,7 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -11618,7 +11618,7 @@
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -11685,7 +11685,7 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -11752,7 +11752,7 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -11819,7 +11819,7 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -11886,7 +11886,7 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -11953,7 +11953,7 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -12020,7 +12020,7 @@
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -12087,7 +12087,7 @@
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -12154,7 +12154,7 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -12221,7 +12221,7 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -12288,7 +12288,7 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -12355,7 +12355,7 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -12422,7 +12422,7 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -12489,7 +12489,7 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -12556,7 +12556,7 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -12623,7 +12623,7 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -12690,7 +12690,7 @@
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -12757,7 +12757,7 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -12824,7 +12824,7 @@
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -12891,7 +12891,7 @@
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -12958,7 +12958,7 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -13025,7 +13025,7 @@
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -13092,7 +13092,7 @@
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -13159,7 +13159,7 @@
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -13226,7 +13226,7 @@
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -13293,7 +13293,7 @@
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -13360,7 +13360,7 @@
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -13427,7 +13427,7 @@
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -13494,7 +13494,7 @@
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -13561,7 +13561,7 @@
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -13628,7 +13628,7 @@
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -13695,7 +13695,7 @@
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -13762,7 +13762,7 @@
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -13829,7 +13829,7 @@
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -13896,7 +13896,7 @@
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -13963,7 +13963,7 @@
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -14030,7 +14030,7 @@
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -14164,7 +14164,7 @@
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -14231,7 +14231,7 @@
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -14298,7 +14298,7 @@
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -14365,7 +14365,7 @@
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -14432,7 +14432,7 @@
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -14499,7 +14499,7 @@
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -14566,7 +14566,7 @@
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -14633,7 +14633,7 @@
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -14700,7 +14700,7 @@
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -14767,7 +14767,7 @@
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -14834,7 +14834,7 @@
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -14901,7 +14901,7 @@
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -14968,7 +14968,7 @@
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -15035,7 +15035,7 @@
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -15102,7 +15102,7 @@
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -15169,7 +15169,7 @@
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -15236,7 +15236,7 @@
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -15303,7 +15303,7 @@
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -15370,7 +15370,7 @@
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -15437,7 +15437,7 @@
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -15504,7 +15504,7 @@
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -15571,7 +15571,7 @@
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -15638,7 +15638,7 @@
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -15705,7 +15705,7 @@
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -15772,7 +15772,7 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -15839,7 +15839,7 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -15906,7 +15906,7 @@
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -15973,7 +15973,7 @@
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -16040,7 +16040,7 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -16107,7 +16107,7 @@
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -16174,7 +16174,7 @@
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -16241,7 +16241,7 @@
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -16308,7 +16308,7 @@
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -16375,7 +16375,7 @@
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -16442,7 +16442,7 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -16509,7 +16509,7 @@
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -16576,7 +16576,7 @@
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -16643,7 +16643,7 @@
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -16710,7 +16710,7 @@
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -16777,7 +16777,7 @@
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -16844,7 +16844,7 @@
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -16911,7 +16911,7 @@
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -16978,7 +16978,7 @@
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -17045,7 +17045,7 @@
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -17112,7 +17112,7 @@
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -17179,7 +17179,7 @@
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -17246,7 +17246,7 @@
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -17313,7 +17313,7 @@
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -17380,7 +17380,7 @@
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -17447,7 +17447,7 @@
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -17514,7 +17514,7 @@
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -17581,7 +17581,7 @@
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -17648,7 +17648,7 @@
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -17715,7 +17715,7 @@
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -17782,7 +17782,7 @@
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -17849,7 +17849,7 @@
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -17916,7 +17916,7 @@
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -17983,7 +17983,7 @@
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -18050,7 +18050,7 @@
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -18117,7 +18117,7 @@
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -18184,7 +18184,7 @@
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -18251,7 +18251,7 @@
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -18318,7 +18318,7 @@
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -18385,7 +18385,7 @@
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -18452,7 +18452,7 @@
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -18519,7 +18519,7 @@
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -18586,7 +18586,7 @@
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -18653,7 +18653,7 @@
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -18720,7 +18720,7 @@
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -18787,7 +18787,7 @@
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -18854,7 +18854,7 @@
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -18921,7 +18921,7 @@
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -18988,7 +18988,7 @@
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -19055,7 +19055,7 @@
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -19122,7 +19122,7 @@
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -19189,7 +19189,7 @@
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -19256,7 +19256,7 @@
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -19323,7 +19323,7 @@
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -19390,7 +19390,7 @@
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -19457,7 +19457,7 @@
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -19524,7 +19524,7 @@
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -19591,7 +19591,7 @@
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -19658,7 +19658,7 @@
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -19725,7 +19725,7 @@
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -19792,7 +19792,7 @@
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -19859,7 +19859,7 @@
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -19926,7 +19926,7 @@
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -19993,7 +19993,7 @@
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -20060,7 +20060,7 @@
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -20127,7 +20127,7 @@
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -20194,7 +20194,7 @@
       </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -20261,7 +20261,7 @@
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -20328,7 +20328,7 @@
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -20395,7 +20395,7 @@
       </c>
       <c r="M299" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -20462,7 +20462,7 @@
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -20529,7 +20529,7 @@
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -20596,7 +20596,7 @@
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -20663,7 +20663,7 @@
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -20730,7 +20730,7 @@
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -20797,7 +20797,7 @@
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -20864,7 +20864,7 @@
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -20931,7 +20931,7 @@
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -20998,7 +20998,7 @@
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -21065,7 +21065,7 @@
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -21132,7 +21132,7 @@
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -21199,7 +21199,7 @@
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -21266,7 +21266,7 @@
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -21333,7 +21333,7 @@
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -21400,7 +21400,7 @@
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -21467,7 +21467,7 @@
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -21534,7 +21534,7 @@
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -21601,7 +21601,7 @@
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -21668,7 +21668,7 @@
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -21735,7 +21735,7 @@
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -21802,7 +21802,7 @@
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -21869,7 +21869,7 @@
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -21936,7 +21936,7 @@
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -22003,7 +22003,7 @@
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -22070,7 +22070,7 @@
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -22137,7 +22137,7 @@
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -22204,7 +22204,7 @@
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -22271,7 +22271,7 @@
       </c>
       <c r="M327" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -22338,7 +22338,7 @@
       </c>
       <c r="M328" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -22405,7 +22405,7 @@
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -22472,7 +22472,7 @@
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -22539,7 +22539,7 @@
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -22606,7 +22606,7 @@
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -22673,7 +22673,7 @@
       </c>
       <c r="M333" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -22740,7 +22740,7 @@
       </c>
       <c r="M334" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -22807,7 +22807,7 @@
       </c>
       <c r="M335" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -22874,7 +22874,7 @@
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -22941,7 +22941,7 @@
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -23008,7 +23008,7 @@
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -23075,7 +23075,7 @@
       </c>
       <c r="M339" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -23142,7 +23142,7 @@
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -23276,7 +23276,7 @@
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -23343,7 +23343,7 @@
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -23410,7 +23410,7 @@
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -23477,7 +23477,7 @@
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -23544,7 +23544,7 @@
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -23611,7 +23611,7 @@
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -23678,7 +23678,7 @@
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -23745,7 +23745,7 @@
       </c>
       <c r="M349" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -23812,7 +23812,7 @@
       </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -23879,7 +23879,7 @@
       </c>
       <c r="M351" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -23946,7 +23946,7 @@
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -24013,7 +24013,7 @@
       </c>
       <c r="M353" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -24080,7 +24080,7 @@
       </c>
       <c r="M354" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -24147,7 +24147,7 @@
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -24214,7 +24214,7 @@
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -24281,7 +24281,7 @@
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -24348,7 +24348,7 @@
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -24415,7 +24415,7 @@
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -24482,7 +24482,7 @@
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -24549,7 +24549,7 @@
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -24616,7 +24616,7 @@
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -24683,7 +24683,7 @@
       </c>
       <c r="M363" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -24750,7 +24750,7 @@
       </c>
       <c r="M364" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -24817,7 +24817,7 @@
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -24884,7 +24884,7 @@
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -24951,7 +24951,7 @@
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -25018,7 +25018,7 @@
       </c>
       <c r="M368" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -25085,7 +25085,7 @@
       </c>
       <c r="M369" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -25152,7 +25152,7 @@
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -25219,7 +25219,7 @@
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -25286,7 +25286,7 @@
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -25353,7 +25353,7 @@
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -25420,7 +25420,7 @@
       </c>
       <c r="M374" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -25487,7 +25487,7 @@
       </c>
       <c r="M375" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -25554,7 +25554,7 @@
       </c>
       <c r="M376" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -25621,7 +25621,7 @@
       </c>
       <c r="M377" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -25688,7 +25688,7 @@
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -25755,7 +25755,7 @@
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -25822,7 +25822,7 @@
       </c>
       <c r="M380" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -25889,7 +25889,7 @@
       </c>
       <c r="M381" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -25956,7 +25956,7 @@
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -26023,7 +26023,7 @@
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -26090,7 +26090,7 @@
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -26157,7 +26157,7 @@
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -26224,7 +26224,7 @@
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -26291,7 +26291,7 @@
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -26358,7 +26358,7 @@
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -26425,7 +26425,7 @@
       </c>
       <c r="M389" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -26492,7 +26492,7 @@
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -26559,7 +26559,7 @@
       </c>
       <c r="M391" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -26626,7 +26626,7 @@
       </c>
       <c r="M392" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -26693,7 +26693,7 @@
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -26760,7 +26760,7 @@
       </c>
       <c r="M394" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -26827,7 +26827,7 @@
       </c>
       <c r="M395" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -26894,7 +26894,7 @@
       </c>
       <c r="M396" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -26961,7 +26961,7 @@
       </c>
       <c r="M397" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -27028,7 +27028,7 @@
       </c>
       <c r="M398" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -27095,7 +27095,7 @@
       </c>
       <c r="M399" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -27162,7 +27162,7 @@
       </c>
       <c r="M400" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -27229,7 +27229,7 @@
       </c>
       <c r="M401" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -27296,7 +27296,7 @@
       </c>
       <c r="M402" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -27363,7 +27363,7 @@
       </c>
       <c r="M403" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -27430,7 +27430,7 @@
       </c>
       <c r="M404" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -27497,7 +27497,7 @@
       </c>
       <c r="M405" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -27564,7 +27564,7 @@
       </c>
       <c r="M406" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -27631,7 +27631,7 @@
       </c>
       <c r="M407" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -27698,7 +27698,7 @@
       </c>
       <c r="M408" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -27765,7 +27765,7 @@
       </c>
       <c r="M409" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -27832,7 +27832,7 @@
       </c>
       <c r="M410" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -27899,7 +27899,7 @@
       </c>
       <c r="M411" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -27966,7 +27966,7 @@
       </c>
       <c r="M412" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -28033,7 +28033,7 @@
       </c>
       <c r="M413" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -28100,7 +28100,7 @@
       </c>
       <c r="M414" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -28167,7 +28167,7 @@
       </c>
       <c r="M415" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -28234,7 +28234,7 @@
       </c>
       <c r="M416" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -28301,7 +28301,7 @@
       </c>
       <c r="M417" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -28368,7 +28368,7 @@
       </c>
       <c r="M418" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -28435,7 +28435,7 @@
       </c>
       <c r="M419" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -28502,7 +28502,7 @@
       </c>
       <c r="M420" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -28569,7 +28569,7 @@
       </c>
       <c r="M421" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -28636,7 +28636,7 @@
       </c>
       <c r="M422" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -28703,7 +28703,7 @@
       </c>
       <c r="M423" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -28770,7 +28770,7 @@
       </c>
       <c r="M424" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -28837,7 +28837,7 @@
       </c>
       <c r="M425" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -28904,7 +28904,7 @@
       </c>
       <c r="M426" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -28971,7 +28971,7 @@
       </c>
       <c r="M427" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -29038,7 +29038,7 @@
       </c>
       <c r="M428" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -29105,7 +29105,7 @@
       </c>
       <c r="M429" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -29172,7 +29172,7 @@
       </c>
       <c r="M430" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -29239,7 +29239,7 @@
       </c>
       <c r="M431" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -29306,7 +29306,7 @@
       </c>
       <c r="M432" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -29373,7 +29373,7 @@
       </c>
       <c r="M433" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -29440,7 +29440,7 @@
       </c>
       <c r="M434" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -29507,7 +29507,7 @@
       </c>
       <c r="M435" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -29574,7 +29574,7 @@
       </c>
       <c r="M436" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -29641,7 +29641,7 @@
       </c>
       <c r="M437" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -29708,7 +29708,7 @@
       </c>
       <c r="M438" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -29775,7 +29775,7 @@
       </c>
       <c r="M439" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -29842,7 +29842,7 @@
       </c>
       <c r="M440" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -29909,7 +29909,7 @@
       </c>
       <c r="M441" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -29976,7 +29976,7 @@
       </c>
       <c r="M442" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -30043,7 +30043,7 @@
       </c>
       <c r="M443" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -30110,7 +30110,7 @@
       </c>
       <c r="M444" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -30177,7 +30177,7 @@
       </c>
       <c r="M445" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -30244,7 +30244,7 @@
       </c>
       <c r="M446" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -30311,7 +30311,7 @@
       </c>
       <c r="M447" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -30378,7 +30378,7 @@
       </c>
       <c r="M448" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -30445,7 +30445,7 @@
       </c>
       <c r="M449" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -30512,7 +30512,7 @@
       </c>
       <c r="M450" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -30579,7 +30579,7 @@
       </c>
       <c r="M451" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -30646,7 +30646,7 @@
       </c>
       <c r="M452" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -30713,7 +30713,7 @@
       </c>
       <c r="M453" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -30780,7 +30780,7 @@
       </c>
       <c r="M454" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -30847,7 +30847,7 @@
       </c>
       <c r="M455" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -30914,7 +30914,7 @@
       </c>
       <c r="M456" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -30981,7 +30981,7 @@
       </c>
       <c r="M457" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -31048,7 +31048,7 @@
       </c>
       <c r="M458" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -31115,7 +31115,7 @@
       </c>
       <c r="M459" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -31182,7 +31182,7 @@
       </c>
       <c r="M460" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -31249,7 +31249,7 @@
       </c>
       <c r="M461" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -31316,7 +31316,7 @@
       </c>
       <c r="M462" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -31383,7 +31383,7 @@
       </c>
       <c r="M463" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -31430,7 +31430,7 @@
       </c>
       <c r="M464" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -31477,7 +31477,7 @@
       </c>
       <c r="M465" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -31524,7 +31524,7 @@
       </c>
       <c r="M466" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -31571,7 +31571,7 @@
       </c>
       <c r="M467" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -31618,7 +31618,7 @@
       </c>
       <c r="M468" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
@@ -31665,7 +31665,7 @@
       </c>
       <c r="M469" t="inlineStr">
         <is>
-          <t>1648719496</t>
+          <t>1650648218</t>
         </is>
       </c>
     </row>
